--- a/public/uploadDir/test.xlsx
+++ b/public/uploadDir/test.xlsx
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,6 +54,30 @@
   </si>
   <si>
     <t>网络工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号（教师号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤衩楼B栋1105室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,6 +216,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,6 +268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,38 +437,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>120522111</v>
@@ -423,15 +485,15 @@
         <v>11111111111</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>120522130</v>
@@ -440,15 +502,15 @@
         <v>11111</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>120522132</v>
@@ -457,10 +519,33 @@
         <v>2222222</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>111111111</v>
+      </c>
+      <c r="C5">
+        <v>123456789</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>110456789143</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploadDir/test.xlsx
+++ b/public/uploadDir/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,26 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涂星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡根生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张智鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>办公地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,15 +49,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丛立刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机科学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>裤衩楼B栋1105室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛立刚17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -468,61 +512,79 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>120522111</v>
+        <v>111111111</v>
       </c>
       <c r="C2">
-        <v>11111111111</v>
+        <v>1123456789</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>110456789143</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>120522130</v>
+        <v>111111111</v>
       </c>
       <c r="C3">
-        <v>11111</v>
+        <v>2123456789</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>110456789143</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>120522132</v>
+        <v>111111111</v>
       </c>
       <c r="C4">
-        <v>2222222</v>
+        <v>3123456789</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>110456789143</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -533,18 +595,317 @@
         <v>111111111</v>
       </c>
       <c r="C5">
-        <v>123456789</v>
+        <v>4123456789</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B6">
+        <v>111111111</v>
+      </c>
+      <c r="C6">
+        <v>5123456789</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="B7">
+        <v>111111111</v>
+      </c>
+      <c r="C7">
+        <v>6123456789</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>111111111</v>
+      </c>
+      <c r="C8">
+        <v>7123456789</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>111111111</v>
+      </c>
+      <c r="C9">
+        <v>8123456789</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>111111111</v>
+      </c>
+      <c r="C10">
+        <v>9123456789</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>111111111</v>
+      </c>
+      <c r="C11">
+        <v>10123456789</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>111111111</v>
+      </c>
+      <c r="C12">
+        <v>11123456789</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>111111111</v>
+      </c>
+      <c r="C13">
+        <v>12123456789</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>111111111</v>
+      </c>
+      <c r="C14">
+        <v>13123456789</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>111111111</v>
+      </c>
+      <c r="C15">
+        <v>14123456789</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>111111111</v>
+      </c>
+      <c r="C16">
+        <v>15123456789</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>111111111</v>
+      </c>
+      <c r="C17">
+        <v>16123456789</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>110456789143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>111111111</v>
+      </c>
+      <c r="C18">
+        <v>17123456789</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
         <v>110456789143</v>
       </c>
     </row>
